--- a/data/long_bre/P19_1-Edad-long_bre.xlsx
+++ b/data/long_bre/P19_1-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,23</t>
+          <t>-9,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,36%</t>
+          <t>-13,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-38,87%</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>-2,35%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-38,41%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,85%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-34,84%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37,3%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 8,64</t>
+          <t>-11,59; 10,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 2,54</t>
+          <t>-23,09; 1,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 12,51</t>
+          <t>-14,4; 12,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-44,66; 40,3</t>
+          <t>-32,12; 2,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-67,62; 12,78</t>
+          <t>-10,31; 23,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 49,43</t>
+          <t>-33,65; 57,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-69,25; 7,94</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-34,46; 50,85</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-60,81; 10,6</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-35,77; 210,14</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,93</t>
+          <t>9,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>10,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>-7,93</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>26,74%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-17,55%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 22,14</t>
+          <t>-4,46; 22,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 19,5</t>
+          <t>-11,0; 17,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 23,78</t>
+          <t>-5,26; 22,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 63,89</t>
+          <t>-8,46; 26,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 55,23</t>
+          <t>-29,24; 13,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 87,45</t>
+          <t>-9,24; 62,91</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-20,99; 46,4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-11,03; 78,59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,05; 96,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-51,82; 39,93</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,44</t>
+          <t>-7,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,42</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,5%</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-36,17%</t>
+          <t>-25,14%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-28,64%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,4%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,29%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,0; 7,38</t>
+          <t>-20,08; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 19,8</t>
+          <t>-6,77; 19,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 0,92</t>
+          <t>-22,11; 2,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,23; 33,33</t>
+          <t>-12,7; 16,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 83,14</t>
+          <t>-21,41; 18,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,97; 5,68</t>
+          <t>-54,46; 15,63</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-18,06; 89,73</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-57,95; 11,4</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,45; 130,4</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-46,87; 85,22</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,8%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,18%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 4,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 11,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 10,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,17; 19,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 65,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 35,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-12,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>-33,26%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13,08%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-3,11%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-17,09%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 11,89</t>
+          <t>-28,95; 0,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 19,76</t>
+          <t>-8,64; 14,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,47; 24,06</t>
+          <t>-12,51; 12,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 32,59</t>
+          <t>-21,44; 13,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,9; 75,44</t>
+          <t>-34,95; 13,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 87,26</t>
+          <t>-59,79; 2,49</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-29,49; 89,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-28,2; 40,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-45,34; 56,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-62,9; 60,39</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,1</t>
+          <t>13,06</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-15,16%</t>
+          <t>12,25</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-39,63%</t>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38,01%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-0,85%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>44,68%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 20,51</t>
+          <t>-10,98; 15,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 7,32</t>
+          <t>-12,8; 17,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-29,18; -0,56</t>
+          <t>-0,18; 25,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 127,71</t>
+          <t>-15,28; 15,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,23; 22,96</t>
+          <t>-7,26; 29,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,34; 0,1</t>
+          <t>-22,85; 50,02</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-28,73; 68,07</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 98,12</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-27,97; 43,68</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-17,47; 187,07</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-18,37</t>
+          <t>-7,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>45,12%</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-49,93%</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>48,83%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-18,75%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-41,5%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>7,9%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-16,67%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 18,56</t>
+          <t>-0,64; 21,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-30,08; -9,22</t>
+          <t>-21,86; 6,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 11,16</t>
+          <t>-27,92; 0,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 116,41</t>
+          <t>-10,38; 12,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-66,49; -28,0</t>
+          <t>-30,0; 15,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 42,05</t>
+          <t>-3,35; 138,56</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-43,83; 20,43</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-68,28; 1,71</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-38,23; 108,16</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-57,27; 72,85</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,68%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 13,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 15,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 1,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 44,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 44,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>-17,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>63,35%</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-25,55%</t>
+          <t>36,92%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-48,6%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>37,77%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>31,26%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 11,05</t>
+          <t>-1,56; 16,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,59; 25,5</t>
+          <t>-29,62; -8,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 0,91</t>
+          <t>-8,34; 10,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 56,72</t>
+          <t>-0,95; 15,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,21; 130,67</t>
+          <t>-6,09; 20,44</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-50,62; 4,97</t>
+          <t>-5,84; 94,52</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-65,3; -25,77</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-21,83; 39,26</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 105,52</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-18,22; 103,65</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12,24</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,04%</t>
+          <t>-17,16</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>-16,34%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-31,86%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 15,98</t>
+          <t>-19,44; 3,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 7,33</t>
+          <t>-9,47; 11,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>4,75; 19,89</t>
+          <t>-6,38; 13,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 97,33</t>
+          <t>-8,34; 13,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 42,86</t>
+          <t>-31,25; -4,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>17,64; 104,95</t>
+          <t>-34,06; 8,73</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,52; 37,23</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 38,91</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,85; 38,22</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-51,23; -8,59</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-10,03</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-18,96%</t>
+          <t>-9,83</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>62,01%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-22,52%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-27,76%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>45,42%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-19,76; -0,82</t>
+          <t>-9,68; 10,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 4,84</t>
+          <t>7,1; 25,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 2,19</t>
+          <t>-15,29; 2,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-33,7; -1,49</t>
+          <t>-20,71; -0,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 11,47</t>
+          <t>-2,23; 20,83</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 4,74</t>
+          <t>-29,62; 48,07</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>21,37; 126,32</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-47,43; 15,18</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-49,91; -0,02</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 164,67</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-19,59%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1978,114 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 11,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 13,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-14,45; 2,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 50,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 56,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-43,46; 9,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,07</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>11,87</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-19,06%</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-32,31%</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>26,13%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-5,29%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>51,03%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-10,6%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +2098,52 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 3,86</t>
+          <t>-2,33; 13,55</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 1,07</t>
+          <t>-8,36; 6,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 9,52</t>
+          <t>3,97; 19,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-44,53; 15,19</t>
+          <t>-17,84; 7,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-57,71; 5,64</t>
+          <t>-9,25; 17,32</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 37,17</t>
+          <t>-10,49; 82,42</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-32,84; 42,66</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>14,28; 100,22</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-41,67; 29,68</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-24,24; 74,55</t>
         </is>
       </c>
     </row>
@@ -1603,37 +2151,57 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>-8,36</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>10,01</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-6,31</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>-15,9%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-7,46%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-12,94%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-1,78%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-1,59%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +2214,52 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 19,84</t>
+          <t>-17,95; 1,67</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 22,07</t>
+          <t>-13,69; 5,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 9,63</t>
+          <t>-15,19; 3,88</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 68,09</t>
+          <t>-11,31; 11,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 69,82</t>
+          <t>-16,62; 14,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 22,13</t>
+          <t>-31,23; 3,29</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-25,14; 11,91</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-28,58; 8,77</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-21,79; 30,97</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-30,09; 38,62</t>
         </is>
       </c>
     </row>
@@ -1679,37 +2267,57 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-2,35%</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-1,17%</t>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>16,22%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-19,9%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>-13,18%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2330,110 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 9,91</t>
+          <t>-6,03; 11,48</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 10,58</t>
+          <t>-3,85; 13,96</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 7,59</t>
+          <t>-14,68; 2,17</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 35,46</t>
+          <t>-5,1; 13,68</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 36,62</t>
+          <t>-14,24; 8,67</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 46,15</t>
+          <t>-19,45; 50,56</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-11,14; 55,83</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-43,31; 10,14</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-18,94; 79,47</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>-50,43; 52,8</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2446,114 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 20,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 19,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 6,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 125,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-24,13; 102,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 26,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-14,6</t>
+          <t>-9,3</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-13,77%</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-34,1%</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-1,15%</t>
+          <t>-16,41%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-32,92%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>21,68%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>33,85%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2566,52 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 6,39</t>
+          <t>-15,38; 5,07</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-32,6; -1,65</t>
+          <t>-18,76; 1,16</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 13,6</t>
+          <t>-8,11; 9,27</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-37,42; 16,49</t>
+          <t>-7,33; 14,07</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-58,42; -3,84</t>
+          <t>-5,26; 20,45</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 36,51</t>
+          <t>-43,58; 18,6</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-56,9; 5,08</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-23,71; 35,73</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-29,8; 101,37</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>-16,59; 108,33</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2619,57 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>10,3</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>-9,21</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>26,83%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>27,79%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-0,67%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-15,74%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>-2,93%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2682,110 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 10,05</t>
+          <t>-4,38; 20,43</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 24,85</t>
+          <t>-3,26; 20,75</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 17,61</t>
+          <t>-10,11; 9,34</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-36,72; 43,29</t>
+          <t>-24,34; 2,95</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 110,27</t>
+          <t>-15,41; 14,13</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 104,93</t>
+          <t>-10,7; 70,65</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 67,17</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-19,25; 21,32</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-36,85; 6,0</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>-27,73; 35,54</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>-4,34</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>-20,12%</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>-12,81%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>-2,88%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>-0,91%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>-26,71%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2798,52 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 6,6</t>
+          <t>-14,04; 8,56</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-10,59; -1,07</t>
+          <t>-11,49; 10,38</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 5,46</t>
+          <t>-8,92; 7,85</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 28,98</t>
+          <t>-6,88; 17,77</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-34,9; -4,28</t>
+          <t>-18,89; 5,4</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 18,35</t>
+          <t>-35,82; 32,36</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-28,88; 36,6</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-35,35; 46,55</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>-26,07; 113,41</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>-58,44; 26,73</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2851,57 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-6,85%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2914,114 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 2,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 5,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 8,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 5,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 14,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 22,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>5,35</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>-4,88</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>-18,56%</t>
+          <t>29,43%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>19,35%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>-16,91%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>-24,95%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +3034,890 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 5,92</t>
+          <t>-5,58; 16,81</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>0,22; 10,16</t>
+          <t>-8,11; 18,62</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-9,74; -0,88</t>
+          <t>-17,71; 5,13</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 23,22</t>
+          <t>-15,98; 14,22</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 34,71</t>
+          <t>-22,36; 8,25</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-32,91; -3,82</t>
+          <t>-21,7; 105,67</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-25,09; 90,01</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-43,0; 20,76</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>-46,14; 72,83</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>-63,56; 40,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-8,02</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-12,83</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-5,17</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-16,51%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-30,41%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-3,43%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>-2,24%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>-11,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-21,13; 5,28</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-27,36; 1,16</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-12,8; 11,01</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-16,63; 16,15</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; 14,37</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-37,84; 13,39</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-54,27; 3,61</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-25,99; 28,96</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>-28,21; 39,63</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>-45,91; 38,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>1,79</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>7,53</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>7,27</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>12,18</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>5,9%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>33,15%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>48,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-10,08; 13,04</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-5,69; 20,87</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 18,22</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-11,49; 13,5</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 32,44</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-28,1; 53,88</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-15,93; 90,52</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-12,64; 112,21</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>-41,46; 89,02</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>-17,61; 210,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-4,94</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-0,94</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>-18,14%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>-3,31%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 5,02</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-9,8; -0,54</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; 5,22</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 4,51</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 8,0</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-12,25; 21,68</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-32,83; -2,08</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-10,8; 18,15</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>-21,5; 17,65</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>-17,97; 32,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-4,02%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>-7,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; 2,67</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 5,54</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 8,01</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 6,37</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-10,87; 3,68</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-15,09; 5,97</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-12,23; 14,53</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 20,39</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>-10,37; 14,47</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>-22,33; 9,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>-4,16</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>-15,97%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 5,56</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 10,22</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-8,83; -0,24</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 5,05</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 8,26</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 21,92</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 35,92</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-30,16; -0,96</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>-16,6; 23,62</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 35,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P19_1-Edad-long_bre.xlsx
+++ b/data/long_bre/P19_1-Edad-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -754,7 +754,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -868,7 +868,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -986,7 +986,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1214,7 +1214,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1446,7 +1446,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1560,7 +1560,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1792,7 +1792,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1906,7 +1906,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -2138,7 +2138,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -2252,7 +2252,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2484,7 +2484,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2598,7 +2598,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2830,7 +2830,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2944,7 +2944,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
